--- a/Jorvik FHIR Profiles and Valuesets/openEHRtoFHIR/Example answer problem to FHIR Condition.xlsx
+++ b/Jorvik FHIR Profiles and Valuesets/openEHRtoFHIR/Example answer problem to FHIR Condition.xlsx
@@ -1,29 +1,345 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="ProblemCondition" sheetId="1" r:id="rId1"/>
+    <sheet name="Code" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="99">
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "sourceId": "79e19641-1b06-4ca7-9562-dad23b640833::answer.hopd.com::31",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "source": "openehr",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "problem": "Asthma",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "terminology": "SNOMED-CT",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "code": "301485011"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "dateOfOnset": 458784000000,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "description": "Default",</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "resourceType": "Condition",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "id": "79e19641-1b06-4ca7-9562-dad23b640833::answer.hopd.com::31",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "identifier": [</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "system": "http://fhir.answer.hopd.com/source/openehr",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "value": "79e19641-1b06-4ca7-9562-dad23b640833::answer.hopd.com::31"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "patient": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "reference": "Patient/9999999000"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "code": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "coding": [</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "system": "http://snomed.info/sct",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "code": "301485011",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "display": "Asthma"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "verificationStatus": "unknown",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "onsetDateTime": "2015-10-19T12:32:17+01:00",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "notes": "Default"</t>
+  </si>
+  <si>
+    <t>Database Id taken from sourceId</t>
+  </si>
+  <si>
+    <t>Business Id - should be unique to the instance i.e. http://answer.leeds.gov.uk/source/openehr</t>
+  </si>
+  <si>
+    <t>Same as the sourceId</t>
+  </si>
+  <si>
+    <t>Need a mapping of terminology systems on openEHR. SNOMED-CT has been mapped to the correct uri. Alternatively suggest http//fhir.answer.hopd.com/terminology/{terminologyName}</t>
+  </si>
+  <si>
+    <t>presume description is a general description</t>
+  </si>
+  <si>
+    <t>This is required in the generic FHIR Condition profile.</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>package org.ayeup.samples;</t>
+  </si>
+  <si>
+    <t>import java.text.ParseException;</t>
+  </si>
+  <si>
+    <t>import java.text.SimpleDateFormat;</t>
+  </si>
+  <si>
+    <t>import java.util.Date;</t>
+  </si>
+  <si>
+    <t>import org.ayeup.constants.NHS.NHSUKConstants;</t>
+  </si>
+  <si>
+    <t>import org.ayeup.constants.openEHR.GOVFictitiousCouncil;</t>
+  </si>
+  <si>
+    <t>import org.hl7.fhir.instance.model.CodeableConcept;</t>
+  </si>
+  <si>
+    <t>import org.hl7.fhir.instance.model.Condition;</t>
+  </si>
+  <si>
+    <t>import org.hl7.fhir.instance.model.Condition.ConditionVerificationStatus;</t>
+  </si>
+  <si>
+    <t>import org.hl7.fhir.instance.model.DateTimeType;</t>
+  </si>
+  <si>
+    <t>import org.hl7.fhir.instance.model.Encounter;</t>
+  </si>
+  <si>
+    <t>import org.hl7.fhir.instance.model.Encounter.EncounterClass;</t>
+  </si>
+  <si>
+    <t>import org.hl7.fhir.instance.model.Period;</t>
+  </si>
+  <si>
+    <t>import org.hl7.fhir.instance.model.Practitioner;</t>
+  </si>
+  <si>
+    <t>import org.hl7.fhir.instance.model.Reference;</t>
+  </si>
+  <si>
+    <t>public class ConditionSamples {</t>
+  </si>
+  <si>
+    <t>Condition condition = new Condition();</t>
+  </si>
+  <si>
+    <t>condition.addIdentifier()</t>
+  </si>
+  <si>
+    <t>CodeableConcept code = new CodeableConcept();</t>
+  </si>
+  <si>
+    <t>code.addCoding()</t>
+  </si>
+  <si>
+    <t>condition.setCode(code);</t>
+  </si>
+  <si>
+    <t>DateTimeType onset=new DateTimeType();</t>
+  </si>
+  <si>
+    <t>SimpleDateFormat fmt = new SimpleDateFormat("yyyy-MM-dd HH:mm:ss");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        try {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        </t>
+  </si>
+  <si>
+    <t>Date onsetDate;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">onsetDate = fmt.parse("2015-10-19 12:32:17"); </t>
+  </si>
+  <si>
+    <t>onset.setValue(onsetDate);</t>
+  </si>
+  <si>
+    <t>condition.setOnset(onset);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        catch (ParseException e1) {</t>
+  </si>
+  <si>
+    <t>// TODO Auto-generated catch block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Reference patRef = new Reference();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        condition.setPatient(patRef);</t>
+  </si>
+  <si>
+    <t>return condition;</t>
+  </si>
+  <si>
+    <t>public Condition DummyConditionAnswer(String id)</t>
+  </si>
+  <si>
+    <t>condition.setId("79e19641-1b06-4ca7-9562-dad23b640833::answer.hopd.com::31");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">// System used below would ideally refer to business i.e. Leeds City council openehr instance id </t>
+  </si>
+  <si>
+    <t>// have left with a answer default. The Id above is the database id</t>
+  </si>
+  <si>
+    <t>.setSystem("http://fhir.answer.hopd.com/source/openehr")</t>
+  </si>
+  <si>
+    <t>.setValue("79e19641-1b06-4ca7-9562-dad23b640833::answer.hopd.com::31");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//Ideally need list of System types and mappings. SNOMED-CT mapping is shown below </t>
+  </si>
+  <si>
+    <t>.setSystem("http://snomed.info/sct")</t>
+  </si>
+  <si>
+    <t>.setCode("301485011")</t>
+  </si>
+  <si>
+    <t>.setDisplay("Asthma");</t>
+  </si>
+  <si>
+    <t>// Date in answer.com model  458784000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        condition.setNotes("Default");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        // These are mandatory in the default profile.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        patRef.setReference("Patient/9999999000");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        condition.setVerificationStatus(ConditionVerificationStatus.UNKNOWN);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Built from </t>
+  </si>
+  <si>
+    <t>"http://idcr.rippleosi.org/api/patients/9999999000/diagnoses/79e19641-1b06-4ca7-9562-dad23b640833%3A%3Aanswer.hopd.com%3A%3A31"</t>
+  </si>
+  <si>
+    <t>Maven Dependency</t>
+  </si>
+  <si>
+    <t>&lt;dependency&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/dependency&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;version&gt;1.0.0.6881&lt;/version&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;artifactId&gt;fhir-dstu2&lt;/artifactId&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;groupId&gt;me.fhir&lt;/groupId&gt;</t>
+  </si>
+  <si>
+    <t>Answer Problem JSON</t>
+  </si>
+  <si>
+    <t>FHIR Condition JSON</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.9"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +350,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -42,18 +358,107 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFE5E0C6"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFE5E0C6"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFE5E0C6"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFE5E0C6"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -343,36 +748,644 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="70" customWidth="1"/>
+    <col min="2" max="2" width="69.109375" customWidth="1"/>
+    <col min="3" max="3" width="52.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="3"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="6"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="6"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="6"/>
+    </row>
+    <row r="18" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="6"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="6"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="6"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="6"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="6"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="6"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="6"/>
+    </row>
+    <row r="28" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="6"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="6"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="6"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="6"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="6"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="6"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="7"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="84.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D32" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D33" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D37" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D38" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D39" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D40" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C41" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C43" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C44" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>62</v>
+      </c>
+      <c r="B46" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>62</v>
+      </c>
+      <c r="B47" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>62</v>
+      </c>
+      <c r="B48" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>62</v>
+      </c>
+      <c r="B49" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>62</v>
+      </c>
+      <c r="B50" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>62</v>
+      </c>
+      <c r="B53" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C66" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
